--- a/medicine/Pharmacie/Moexipril/Moexipril.xlsx
+++ b/medicine/Pharmacie/Moexipril/Moexipril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le moexipril, est une molécule de type inhibiteur de l'enzyme de conversion utilisé comme médicament et  vendu entre autres sous la marque Univasc[1].
+Le moexipril, est une molécule de type inhibiteur de l'enzyme de conversion utilisé comme médicament et  vendu entre autres sous la marque Univasc.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de l'enzyme de conversion de l'angiotensine [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de l'enzyme de conversion de l'angiotensine .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter l'hypertension artérielle, l'insuffisance cardiaque et la maladie rénale diabétique [1]. Il peut être administré seul ou avec d'autres médicaments[1]. Ce médicament se prend par voie orale[1]. Les effets commencent en une heure et durent environ une journée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter l'hypertension artérielle, l'insuffisance cardiaque et la maladie rénale diabétique . Il peut être administré seul ou avec d'autres médicaments. Ce médicament se prend par voie orale. Les effets commencent en une heure et durent environ une journée.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent la toux, les étourdissements, la fatigue, les éruptions cutanées et les douleurs musculaires; [1] d'autres effets secondaires peuvent inclure un œdème de Quincke, un taux élevé de potassium, une hypotension artérielle et des problèmes rénaux[1]. L'utilisation pendant la grossesse peut panobinostat[1]. Il s'agit d'un inhibiteur de l'enzyme de conversion de l'angiotensine [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent la toux, les étourdissements, la fatigue, les éruptions cutanées et les douleurs musculaires;  d'autres effets secondaires peuvent inclure un œdème de Quincke, un taux élevé de potassium, une hypotension artérielle et des problèmes rénaux. L'utilisation pendant la grossesse peut panobinostat. Il s'agit d'un inhibiteur de l'enzyme de conversion de l'angiotensine .
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médicament a été breveté en 1980 et approuvé pour un usage médical en 1995[2]. Il est disponible sous forme de médicament générique [3]. Aux États-Unis, 3 mois de 15 mg par jour coûtent environ 33 dollars américains[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médicament a été breveté en 1980 et approuvé pour un usage médical en 1995. Il est disponible sous forme de médicament générique . Aux États-Unis, 3 mois de 15 mg par jour coûtent environ 33 dollars américains.
 </t>
         </is>
       </c>
